--- a/로스트아크/데이터테이블/이전목록.xlsx
+++ b/로스트아크/데이터테이블/이전목록.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A60BB-B977-49C6-83FB-C51758F32744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D43722-7DE4-4004-8B9F-39AFE66D9E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설명" sheetId="2" r:id="rId1"/>
     <sheet name="목록" sheetId="1" r:id="rId2"/>
+    <sheet name="트라이포드 인포" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>icon_res</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -146,6 +147,347 @@
   <si>
     <t>Effect Table에서 아이콘이 없는 효과의 경우 icon_res가 null값임.
 하지만, 아이콘 리소스 테이블로 정규화하면 null값을 없앨 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_info_key</t>
+  </si>
+  <si>
+    <t>skill_info_key</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier_idx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>청룡진/T1_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T1_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위파괴 강화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_20.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위파괴 레벨이 1만큼 증가합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌진탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_69.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 무력화 단계가 [중]으로 증가합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T1_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T1_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 공략</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_158.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격에 적중된 적은 16.0초 동안 자신 및 파티원의 치명타 공격에 받는 피해가 8.0% 증가합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T2_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T2_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중 공략</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_41.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위가 20.0% 감소하고 즉시 창을 바닥에 내려찍습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지 파괴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_15.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[토] 속성으로 변경되고, 공격 적중 시 5.0초 동안 지진에 걸립니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T2_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T2_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내려치는 창</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_52.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위가 20.0% 감소하지만, 마우스 위치에 창이 떨어지는 공격을 가합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T3_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T3_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 준비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_3_56.png</t>
+  </si>
+  <si>
+    <t>재사용 대기시간이 11.0초 감소합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM_18_T3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최후의 판단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_3_91.png</t>
+  </si>
+  <si>
+    <t>듀얼 게이지를 1칸 소모하지만, 적에게 주는 피해가 190.4% 증가합니다. 보유한 듀얼 게이지가 1칸 미만이면 적용 되지 않습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T1_0</t>
+  </si>
+  <si>
+    <t>LM_25_T1_0</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_25</t>
+  </si>
+  <si>
+    <t>반응 속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_6.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">홀딩 또는 차지속도가 30.0% 빨라집니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T1_1</t>
+  </si>
+  <si>
+    <t>LM_25_T1_1</t>
+  </si>
+  <si>
+    <t>화력 조절</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_37.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 적중할 때 마다 회복하는 듀얼 게이지가 45.0% 증가합니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T1_2</t>
+  </si>
+  <si>
+    <t>LM_25_T1_2</t>
+  </si>
+  <si>
+    <t>단단한 갑옷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_25.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 시전 중 받는 피해가 40.8% 감소합니다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T2_0</t>
+  </si>
+  <si>
+    <t>LM_25_T2_0</t>
+  </si>
+  <si>
+    <t>단호한 의지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">적에게 주는 피해가 40.0% 증가하고 퍼펙트 존의 공격은 적에게 주는 피해가 70.0% 증가합니다.    </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T2_1</t>
+  </si>
+  <si>
+    <t>LM_25_T2_1</t>
+  </si>
+  <si>
+    <t>진화하는 창술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_42.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼펙트 존이 사라지고 차지 조작으로 변경되며 차지 중 360도 방향 전환이 가능합니다.
+공격 시 적에게 주는 피해가 58.6% 증가하고, 오버차지 공격 시 적에게 주는 피해가 퍼펙트 존 효과보다 83.0% 증가합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T2_2</t>
+  </si>
+  <si>
+    <t>LM_25_T2_2</t>
+  </si>
+  <si>
+    <t>파괴하는 창</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_4.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">창을 찌르는 공격의 폭이 50.0% 좁아지지만 치명타 적중률이 100.0% 증가하며 치명타 피해가 60.0% 증가합니다.   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T3_0</t>
+  </si>
+  <si>
+    <t>LM_25_T3_0</t>
+  </si>
+  <si>
+    <t>약점 포착</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_3_33.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네임드 등급 이상의 몬스터에게 주는 피해가 96.0% 증가합니다.  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T3_1</t>
+  </si>
+  <si>
+    <t>LM_25_T3_1</t>
+  </si>
+  <si>
+    <t>치명적인 조준</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_3_39.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">치명타 피해량이 160.0% 증가합니다.  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수치 값 입력한 버전</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,10 +495,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +555,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE8A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +673,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B93CB2-F00D-47EE-8AA5-CB08AF795E7F}">
   <dimension ref="B1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -968,4 +1382,661 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83DBBBD-423F-40E1-9173-A746CAD4D26F}">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.5" style="17" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="20" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="19" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="20" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="19" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="13" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G2" s="16"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:22" s="16" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/로스트아크/데이터테이블/이전목록.xlsx
+++ b/로스트아크/데이터테이블/이전목록.xlsx
@@ -8,26 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D43722-7DE4-4004-8B9F-39AFE66D9E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EFB4D-CC41-443F-A23E-B4A1A8AE7CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3444" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설명" sheetId="2" r:id="rId1"/>
     <sheet name="목록" sheetId="1" r:id="rId2"/>
     <sheet name="트라이포드 인포" sheetId="3" r:id="rId3"/>
+    <sheet name="스킬 리소스" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="163">
   <si>
     <t>icon_res</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -489,15 +501,185 @@
   <si>
     <t>데이터 수치 값 입력한 버전</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_res</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_res</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_res</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 리소스 파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비주얼 이펙트 리소스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사운드 리소스 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill-resource Table을 만들고, 거기에 넣기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트/사운드 등 특정한 타이밍에 발생하는 리소스임.
+또한, 디테일한 작업(이펙트 발생 타이밍, 사운드 출력 타이밍 조절 등)을 위해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation_res</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_res</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_res</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_anim.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_vfx.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_anim_var1.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_vfx_var1.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_sound_var1.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_anim.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_vfx.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_02_anim.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_02_vfx.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_02_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_anim.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_vfx.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_anim_var1.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_vfx_var1.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_sound_var1.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_anim.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_vfx.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_anim_var1.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_vfx_var1.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_sound_var1.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_26_anim.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_26_vfx.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_26_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_27_anim.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_27_vfx.fbx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_27_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;, &quot;0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -650,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,13 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,6 +887,18 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,37 +1180,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B93CB2-F00D-47EE-8AA5-CB08AF795E7F}">
-  <dimension ref="B1:F2"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="5"/>
-    <col min="2" max="2" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="5"/>
-    <col min="4" max="4" width="19.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="5"/>
+    <col min="1" max="1" width="8.796875" style="10"/>
+    <col min="2" max="2" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="3"/>
+    <col min="4" max="4" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:6" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1037,14 +1224,58 @@
       <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="20"/>
+      <c r="C5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1388,651 +1619,794 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83DBBBD-423F-40E1-9173-A746CAD4D26F}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.5" style="17" customWidth="1"/>
-    <col min="9" max="11" width="15.69921875" style="20" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="19" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="19" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="20" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="8.796875" style="19"/>
+    <col min="1" max="1" width="10.69921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.5" style="14" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="17" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="16" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="17" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="16" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="G2" s="16"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-    </row>
-    <row r="8" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>3</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="s">
+    <row r="11" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
         <v>2</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>2</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-    </row>
-    <row r="16" spans="1:22" s="16" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="14" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" s="13" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>2</v>
       </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="13">
         <v>2</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <v>3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813847DB-15CC-479F-8F4D-BBB6A106FEB8}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.69921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/이전목록.xlsx
+++ b/로스트아크/데이터테이블/이전목록.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EFB4D-CC41-443F-A23E-B4A1A8AE7CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72384C4B-638B-4BE2-8C44-B16B05D6DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설명" sheetId="2" r:id="rId1"/>
     <sheet name="목록" sheetId="1" r:id="rId2"/>
     <sheet name="트라이포드 인포" sheetId="3" r:id="rId3"/>
     <sheet name="스킬 리소스" sheetId="4" r:id="rId4"/>
+    <sheet name="effect table schema" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="201">
   <si>
     <t>icon_res</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -669,6 +670,748 @@
   </si>
   <si>
     <t>lm_skill_27_sound.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Table Schema</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 요약 설명 (기획용)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 명칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 종류  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 일반 효과 (DEFAULT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 버프 등 이로운 효과(BUFF) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 디버프 등 해로운 효과 (DEBUFF)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 유형  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 피해형(DAMAGE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 능력치 조절(STAT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 특수 기능(SPECIAL) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 스킬 제어(SKILL_CONTROL) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 오브젝트 제어(OBJECT_CONTROL)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">type별 상세 효과 유형 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(아래의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[비고 1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 참고)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과가 적용되는 방식  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 대미지 처리(DEAL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 고정 수치 증가(PLUS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 비율 증가(INCREASE) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 고정 수치 감소(MINUS) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 비율 감소(DECREASE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 부여(GRANT) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 변경 (CHANGE) </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[비고 1] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type별 상세 효과</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = 0 (피해형)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = dealing_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = 1 (능력치 조절)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = target_stat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = 2 (특수 기능)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = immune_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = buff_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = hit_reaction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = debuff_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = 3 (스킬 제어)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = skill_attribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = 4 (오브젝트 제어)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type = object_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +1424,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0&quot;, &quot;0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,8 +1506,68 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,8 +1592,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -828,11 +1655,294 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,14 +2001,107 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,7 +2435,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1241,34 +2444,34 @@
       <c r="D3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2276,15 +3479,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813847DB-15CC-479F-8F4D-BBB6A106FEB8}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2300,112 +3503,112 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2413,4 +3616,485 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7274176-EBDE-47A4-9780-EFC67E94975C}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
+      <c r="B3" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="36">
+        <f>ROW(B5)-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="23"/>
+      <c r="B6" s="40">
+        <f t="shared" ref="B6:B10" si="0">ROW(B6)-4</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A7" s="23"/>
+      <c r="B7" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A8" s="23"/>
+      <c r="B8" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="37.200000000000003" x14ac:dyDescent="0.4">
+      <c r="A10" s="23"/>
+      <c r="B10" s="40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="23"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="23"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="23"/>
+      <c r="B14" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="23"/>
+      <c r="B15" s="51">
+        <v>1</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="23"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="23"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="51">
+        <v>2</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="23"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="23"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="23"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="23"/>
+      <c r="B23" s="51">
+        <v>3</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="23"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="23"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="23"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="23"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="23"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="23"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="23"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="23"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="23"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="23"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="23"/>
+      <c r="B36" s="51">
+        <v>4</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="23"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="23"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="23"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="23"/>
+      <c r="B40" s="51">
+        <v>5</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="23"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="23"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>